--- a/Document/Review/Tasklist.xlsx
+++ b/Document/Review/Tasklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3147A2-2CAC-4C98-8CCF-D587E582B563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FE6869-50B8-4969-A961-2B8FFCD0C08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,7 +1043,9 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="14">
+        <v>1</v>
+      </c>
       <c r="B26" s="14" t="s">
         <v>29</v>
       </c>
@@ -1105,7 +1107,9 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="14">
+        <v>2</v>
+      </c>
       <c r="B28" s="14" t="s">
         <v>31</v>
       </c>
@@ -1135,7 +1139,9 @@
       <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14">
+        <v>3</v>
+      </c>
       <c r="B30" s="14" t="s">
         <v>33</v>
       </c>
@@ -1150,7 +1156,9 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
       <c r="B31" s="15" t="s">
         <v>18</v>
       </c>
